--- a/meter-web/src/main/resources/excelTemplate/exportingTemplate.xlsx
+++ b/meter-web/src/main/resources/excelTemplate/exportingTemplate.xlsx
@@ -68,7 +68,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> end_cell_Style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,17 +471,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">

--- a/meter-web/src/main/resources/excelTemplate/exportingTemplate.xlsx
+++ b/meter-web/src/main/resources/excelTemplate/exportingTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,15 +56,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> end_cell_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>status_0_Style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> end_cell_Style</t>
+    <t>status_1_Style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,23 +475,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.125" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,45 +499,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/meter-web/src/main/resources/excelTemplate/exportingTemplate.xlsx
+++ b/meter-web/src/main/resources/excelTemplate/exportingTemplate.xlsx
@@ -28,51 +28,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>datas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_2_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_3_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> end_cell_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_0_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_1_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultStyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_2_Style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_3_Style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> end_cell_Style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_0_Style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_1_Style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -484,9 +484,9 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
     <col min="8" max="8" width="34.109375" customWidth="1"/>
     <col min="9" max="9" width="18.77734375" customWidth="1"/>
   </cols>
@@ -499,47 +499,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
